--- a/uber_receipts/summary.xlsx
+++ b/uber_receipts/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\susu_summer24\uber receipts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\susu_summer24\uber_receipts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBFB860-DAB5-482C-B1A0-3EC24118B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1179E9B-D37A-4EED-AA52-5D09580090E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -54,6 +54,147 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00 PM, Wednesday August 7 2024 </t>
+  </si>
+  <si>
+    <t>8:39 AM, Wednesday August 7 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:08 AM, Tuesday August 6 2024 </t>
+  </si>
+  <si>
+    <t>12:35 AM, Saturday August 3 2024</t>
+  </si>
+  <si>
+    <t>12:54 PM, Friday August 2 2024</t>
+  </si>
+  <si>
+    <t>9:28 AM, Friday August 2</t>
+  </si>
+  <si>
+    <t>1:09 PM, Tuesday July 30 2024</t>
+  </si>
+  <si>
+    <t>9:09 AM, Tuesday July 30 2024</t>
+  </si>
+  <si>
+    <t>8:37 AM, Monday July 29 2024</t>
+  </si>
+  <si>
+    <t>12:57 PM, Tuesday July 23 2024</t>
+  </si>
+  <si>
+    <t>8:58 AM, Tuesday July 23 2024</t>
+  </si>
+  <si>
+    <t>8:45 AM, Monday July 22 2024</t>
+  </si>
+  <si>
+    <t>8:36 AM, Friday July 19 2024</t>
+  </si>
+  <si>
+    <t>8:22 AM, Wednesday July 17 2024</t>
+  </si>
+  <si>
+    <t>8:27 AM, Wednesday July 10 2024</t>
+  </si>
+  <si>
+    <t>8:48 AM, Monday July 8 2024</t>
+  </si>
+  <si>
+    <t>9:02 AM, Tuesday July 2 2024</t>
+  </si>
+  <si>
+    <t>10:30 AM, Monday July 1 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:51 AM, Thursday June 27 2024 </t>
+  </si>
+  <si>
+    <t>8:34 AM, Wednesday June 26 2024</t>
+  </si>
+  <si>
+    <t>12:03 PM, Tuesday June 25 2024</t>
+  </si>
+  <si>
+    <t>10:51 AM, Friday June 14 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$7.7+$10.96 </t>
+  </si>
+  <si>
+    <t>receipt_1848cf6d-fa7b-4877-bae1-1f1f589c554b.pdf</t>
+  </si>
+  <si>
+    <t>receipt_1794c044-8de1-4b4e-b6ca-56f27380d3dd.pdf</t>
+  </si>
+  <si>
+    <t>receipt_25975585-59f6-4b12-a198-1030c36229e8.pdf</t>
+  </si>
+  <si>
+    <t>receipt_e5576106-f84e-45e2-9171-7fb221cc331f.pdf</t>
+  </si>
+  <si>
+    <t>receipt_9889029e-ef1d-4636-a17f-da09f96a0a7c.pdf</t>
+  </si>
+  <si>
+    <t>receipt_33bf1e4c-0149-4696-b9e6-df5d61b54d0f.pdf</t>
+  </si>
+  <si>
+    <t>receipt_40c67437-1d03-45ed-adf5-7998ab777c25.pdf</t>
+  </si>
+  <si>
+    <t>receipt_6a24ead9-7daa-4c5a-9eac-93893130764a.pdf</t>
+  </si>
+  <si>
+    <t>receipt_f0e20f12-05e7-43e7-9e7c-afaa6a70aa37.pdf</t>
+  </si>
+  <si>
+    <t>receipt_98c2586e-101f-42cd-8a69-be68cefd867a.pdf</t>
+  </si>
+  <si>
+    <t>receipt_8d74adba-78d3-4abc-9941-a3e50dedb56a.pdf</t>
+  </si>
+  <si>
+    <t>receipt_10f2714d-2daf-4668-a5f0-6b54f03dbf31.pdf</t>
+  </si>
+  <si>
+    <t>receipt_d8e31b07-3d6d-444f-bdbc-c390cb096df8.pdf</t>
+  </si>
+  <si>
+    <t>receipt_ef762555-181f-41ed-b79a-0183a97f70d1.pdf</t>
+  </si>
+  <si>
+    <t>receipt_632edb42-c33b-4c82-b78b-0a5378231d02.pdf</t>
+  </si>
+  <si>
+    <t>receipt_f64850b8-bcff-41e8-85e2-d5cf5cc2310e.pdf</t>
+  </si>
+  <si>
+    <t>receipt_8ad70530-3557-4670-a39f-4b3fbc4cae22.pdf</t>
+  </si>
+  <si>
+    <t>receipt_29de08e9-00fd-46f1-8d05-809ca8eb0bb7.pdf</t>
+  </si>
+  <si>
+    <t>receipt_a08c1a12-23b9-478d-a6b8-5dc668bbeeab.pdf</t>
+  </si>
+  <si>
+    <t>receipt_bbe3cfa8-4c47-468e-a852-ebe2a55e378f.pdf</t>
+  </si>
+  <si>
+    <t>receipt_837db1e2-9955-423a-a7ec-4e62bf2a2d99.pdf</t>
+  </si>
+  <si>
+    <t>receipt_6fd39f26-f6fa-44e4-a644-84c9944e04cd.pdf</t>
+  </si>
+  <si>
+    <t>receipt_86ac1b4a-e11d-49aa-b4e6-eab2238c3c34.pdf receipt_ddbfeaa8-e8f2-416d-9448-d3a82b70ca61.pdf</t>
+  </si>
+  <si>
+    <t>receipt_70a44157-64f0-41d0-b1b3-d22688f4ea42.pdf</t>
   </si>
 </sst>
 </file>
@@ -61,8 +202,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -110,15 +251,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,123 +546,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="4"/>
+    <col min="4" max="4" width="78.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>11.97</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>13.97</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
+        <v>12.96</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>14.93</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>12.96</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>12.95</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>13.98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>14.91</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13.91</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4">
+        <v>14.96</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12.96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4">
+        <v>14.92</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13.99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4">
+        <v>12.97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4">
+        <v>12.76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4">
+        <v>12.68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="C23" s="4">
+        <v>14.93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4">
+        <v>18.66</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4">
+        <v>13.27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
+      <c r="C27" s="4">
+        <f>SUM(C2:C25)</f>
+        <v>330.86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uber_receipts/summary.xlsx
+++ b/uber_receipts/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\susu_summer24\uber_receipts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1179E9B-D37A-4EED-AA52-5D09580090E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2AB2BD-A17F-428E-A689-EB6396D6AF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>receipt_70a44157-64f0-41d0-b1b3-d22688f4ea42.pdf</t>
+  </si>
+  <si>
+    <t>8:58 AM, Monday August 12 2024</t>
+  </si>
+  <si>
+    <t>receipt_b19e0a5b-f584-4cd4-a99e-cce7d838062f.pdf</t>
   </si>
 </sst>
 </file>
@@ -251,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -260,7 +266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -546,28 +551,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="57.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="44.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="4" customWidth="1"/>
     <col min="4" max="4" width="78.81640625" customWidth="1"/>
     <col min="5" max="5" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -582,28 +587,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4">
-        <v>11.97</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>14.97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>15</v>
+        <v>11.97</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -612,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
-        <v>13.97</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -626,14 +630,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="4">
-        <v>8.42</v>
+        <v>13.97</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -642,13 +646,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>13.95</v>
+        <v>8.42</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -657,13 +661,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
         <v>13.95</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -675,10 +679,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>14.9</v>
+        <v>13.95</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -686,14 +690,14 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="4">
-        <v>12.96</v>
+        <v>14.9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -702,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
-        <v>14.93</v>
+        <v>12.96</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -716,14 +720,14 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="4">
-        <v>12.96</v>
+        <v>14.93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -732,13 +736,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4">
-        <v>12.95</v>
+        <v>12.96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -747,42 +751,43 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4">
-        <v>13.98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>12.95</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4">
-        <v>14.91</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>13.98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4">
-        <v>13.91</v>
+        <v>14.91</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -790,13 +795,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4">
-        <v>14.96</v>
+        <v>13.91</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -807,10 +812,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="4">
-        <v>12.96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
+        <v>14.96</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -818,13 +823,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4">
-        <v>14.92</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>12.96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -832,13 +837,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4">
-        <v>13.99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
+        <v>14.92</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -846,13 +851,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4">
-        <v>12.97</v>
+        <v>13.99</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -860,13 +865,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4">
-        <v>12.76</v>
+        <v>12.97</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -874,13 +879,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4">
-        <v>12.68</v>
+        <v>12.76</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -888,53 +893,67 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4">
-        <v>14.93</v>
+        <v>12.68</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="4">
-        <v>18.66</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14.93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4">
+        <v>18.66</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C26" s="4">
         <v>13.27</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
-        <f>SUM(C2:C25)</f>
-        <v>330.86</v>
+      <c r="C28" s="4">
+        <f>SUM(C2:C26)</f>
+        <v>345.83000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/uber_receipts/summary.xlsx
+++ b/uber_receipts/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\susu_summer24\uber_receipts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2AB2BD-A17F-428E-A689-EB6396D6AF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8841ABE6-5BEC-4F81-BA93-BA33101C8DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -122,9 +122,6 @@
     <t>10:51 AM, Friday June 14 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">$7.7+$10.96 </t>
-  </si>
-  <si>
     <t>receipt_1848cf6d-fa7b-4877-bae1-1f1f589c554b.pdf</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>receipt_6fd39f26-f6fa-44e4-a644-84c9944e04cd.pdf</t>
   </si>
   <si>
-    <t>receipt_86ac1b4a-e11d-49aa-b4e6-eab2238c3c34.pdf receipt_ddbfeaa8-e8f2-416d-9448-d3a82b70ca61.pdf</t>
-  </si>
-  <si>
     <t>receipt_70a44157-64f0-41d0-b1b3-d22688f4ea42.pdf</t>
   </si>
   <si>
@@ -201,6 +195,19 @@
   </si>
   <si>
     <t>receipt_b19e0a5b-f584-4cd4-a99e-cce7d838062f.pdf</t>
+  </si>
+  <si>
+    <t>receipt_86ac1b4a-e11d-49aa-b4e6-eab2238c3c34.pdf 
+receipt_ddbfeaa8-e8f2-416d-9448-d3a82b70ca61.pdf</t>
+  </si>
+  <si>
+    <t>$7.7+$10.96 - stopped in wells fargo</t>
+  </si>
+  <si>
+    <t>9:18 AM, Wednesday August 14 2024</t>
+  </si>
+  <si>
+    <t>receipt_289c6093-6c80-4adc-b346-fd6f21fa5227.pdf</t>
   </si>
 </sst>
 </file>
@@ -257,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -270,6 +277,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,18 +595,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="4">
-        <v>14.97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
+      <c r="B2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11">
+        <v>13.97</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -601,28 +614,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14.97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>11.97</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>15</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -631,28 +643,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>13.97</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8.42</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -661,28 +673,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>13.95</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>13.95</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -694,25 +706,25 @@
         <v>11</v>
       </c>
       <c r="C9" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
         <v>14.9</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4">
-        <v>12.96</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -721,28 +733,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>12.96</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="4">
         <v>14.93</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
-        <v>12.96</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -751,57 +763,58 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
+        <v>12.96</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>12.95</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13.98</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13.98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>14.91</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4">
-        <v>13.91</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -809,27 +822,27 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4">
-        <v>14.96</v>
+        <v>13.91</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="4">
-        <v>12.96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
+        <v>14.96</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -837,27 +850,27 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4">
+        <v>12.96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>14.92</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4">
-        <v>13.99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -865,27 +878,27 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4">
+        <v>13.99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>12.97</v>
       </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4">
-        <v>12.76</v>
-      </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -893,67 +906,81 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4">
+        <v>12.76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>12.68</v>
       </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4">
-        <v>14.93</v>
-      </c>
       <c r="D24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4">
+        <v>14.93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C26" s="4">
         <v>18.66</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>13.27</v>
       </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="4">
-        <f>SUM(C2:C26)</f>
-        <v>345.83000000000004</v>
+      <c r="C29" s="4">
+        <f>SUM(C2:C27)</f>
+        <v>359.80000000000007</v>
       </c>
     </row>
   </sheetData>
